--- a/cms/language/翻译需求.xlsx
+++ b/cms/language/翻译需求.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26124"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="560" windowWidth="31180" windowHeight="18940"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="商店" sheetId="2" r:id="rId3"/>
     <sheet name="IM" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,381 +27,180 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="123">
-  <si>
-    <t>宠物装备详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护腰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手镯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护身符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>宝石加成</t>
-  </si>
-  <si>
-    <t>该品质装备不可镶嵌宝石</t>
-  </si>
-  <si>
-    <t>未开孔：开孔后将获得宝石槽</t>
-  </si>
-  <si>
-    <t>未镶嵌</t>
-  </si>
-  <si>
-    <t>卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能点数已满，快来升级技能吧</t>
-  </si>
-  <si>
-    <t>需求道具不足</t>
-  </si>
-  <si>
-    <t>宠物锁定成功</t>
-  </si>
-  <si>
-    <t>打造成功</t>
-  </si>
-  <si>
-    <t>打造失败</t>
-  </si>
-  <si>
-    <t>恭喜，宠物经验+9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力上升/下降9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物解锁成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打造</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>镶嵌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed</t>
-  </si>
-  <si>
-    <t>装备列表详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型</t>
-  </si>
-  <si>
-    <t>物理型</t>
-  </si>
-  <si>
-    <t>法术型</t>
-  </si>
-  <si>
-    <t>支援型</t>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化、进阶界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗材料</t>
-  </si>
-  <si>
-    <t>强化打造</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打造是有一定成功率的，打造失败将损失打造材料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化打造是不会失败的，放心打造吧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜，装备打造已满</t>
-  </si>
-  <si>
-    <t>装备宝石镶嵌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石槽已全开</t>
-  </si>
-  <si>
-    <t>点击开孔有机会开启宝石槽</t>
-  </si>
-  <si>
-    <t>点击宝石槽可镶嵌宝石</t>
-  </si>
-  <si>
-    <t>请从右侧宝石列表选择镶嵌的宝石</t>
-  </si>
-  <si>
-    <t>开孔将随机获得“1—装备品质限定最大槽数“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开孔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定开孔么？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开孔将随机开启不同数量的宝石槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>若已镶嵌宝石，宝石将全部返还到背包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通商店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会商店</t>
-  </si>
-  <si>
-    <t>下次自动刷新时间：今日/明日XX：XX</t>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XX商店每天最多刷新X次，当前第Y次</t>
-  </si>
-  <si>
-    <t>是否确认刷新？</t>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打折</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币不足，无法购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法继续购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功购买XXX*数量（XXX为道具名称）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石不足，是否前往充值？</t>
-  </si>
-  <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月卡界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特权剩余时间：XX天</t>
-  </si>
-  <si>
-    <t>月卡购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定购买30天月卡？</t>
-  </si>
-  <si>
-    <t>充值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>频道设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽世界频道所有发言</t>
-  </si>
-  <si>
-    <t>屏蔽公会频道所有发言</t>
-  </si>
-  <si>
-    <t>发送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您输入内容</t>
-  </si>
-  <si>
-    <t>您发送过于频繁，请稍后再试</t>
-  </si>
-  <si>
-    <t>您还没有公会</t>
-  </si>
-  <si>
-    <t>您发送的内容含有非法信息，不能发送</t>
-  </si>
-  <si>
-    <t>打造已达当前人物等级最强效果，快去升级吧！</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="214">
+  <si>
+    <t>This equipment quality is unable to insert Gems.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Sockets: Reveals a Gem slot after opening.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message contains illicit content, unable to send.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening Sockets will randomly reveal different amounts of Gem slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any inserted Gems will all be returned to your Bag.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening Sockets will randomly reveal between "1 and the equipment's maximum amount" of slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select a Gem from the list on the right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap a Gem slot to insert a Gem.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap 'Open Sockets' for a chance of revealing Gem slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem slots are full.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Sockets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge success!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge failed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability points at max, level up your abilities!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The store can be refreshed a maximum of X times per day. This is refresh number Y. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benefits Time Remaining: XX Day(s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter message to send.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have sent messages too frequently. Please try again later.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat Settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm Open Sockets?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can purchase today: X/Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a small amount of Diamonds to exchange for a large amount of Coins.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Refresh: Today/Tomorrow XX:XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue?</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive an extra XX Diamonds with purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top-Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm purchase of 30 day Monthly Card?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Monthly Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have purchased the maximum amount for today.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase success!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insufficient currency, unable to purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to continue purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully purchased XXX * amount.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have not joined a Guild.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP increase/decrease 9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insufficient amount of required items.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -409,31 +208,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>首充赠送XX钻石</t>
-    <rPh sb="1" eb="2">
-      <t>chong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石换金币</t>
-    <rPh sb="0" eb="1">
-      <t>zuan'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jin'bi</t>
-    </rPh>
+    <t>Refresh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold Out!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -553,6 +336,610 @@
     <t>IM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bracelet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amulet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Attributes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not engraved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYS Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block all Global Chat messages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block all Guild Chat messages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手镯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护身符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>宝石加成</t>
+  </si>
+  <si>
+    <t>该品质装备不可镶嵌宝石</t>
+  </si>
+  <si>
+    <t>未开孔：开孔后将获得宝石槽</t>
+  </si>
+  <si>
+    <t>未镶嵌</t>
+  </si>
+  <si>
+    <t>卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点数已满，快来升级技能吧</t>
+  </si>
+  <si>
+    <t>需求道具不足</t>
+  </si>
+  <si>
+    <t>宠物锁定成功</t>
+  </si>
+  <si>
+    <t>打造成功</t>
+  </si>
+  <si>
+    <t>打造失败</t>
+  </si>
+  <si>
+    <t>恭喜，宠物经验+9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力上升/下降9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物解锁成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed</t>
+  </si>
+  <si>
+    <t>装备列表详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型</t>
+  </si>
+  <si>
+    <t>物理型</t>
+  </si>
+  <si>
+    <t>法术型</t>
+  </si>
+  <si>
+    <t>支援型</t>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化、进阶界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料</t>
+  </si>
+  <si>
+    <t>强化打造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造是有一定成功率的，打造失败将损失打造材料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化打造是不会失败的，放心打造吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜，装备打造已满</t>
+  </si>
+  <si>
+    <t>装备宝石镶嵌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石槽已全开</t>
+  </si>
+  <si>
+    <t>点击开孔有机会开启宝石槽</t>
+  </si>
+  <si>
+    <t>点击宝石槽可镶嵌宝石</t>
+  </si>
+  <si>
+    <t>请从右侧宝石列表选择镶嵌的宝石</t>
+  </si>
+  <si>
+    <t>开孔将随机获得“1—装备品质限定最大槽数“</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定开孔么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开孔将随机开启不同数量的宝石槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若已镶嵌宝石，宝石将全部返还到背包</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通商店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会商店</t>
+  </si>
+  <si>
+    <t>下次自动刷新时间：今日/明日XX：XX</t>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX商店每天最多刷新X次，当前第Y次</t>
+  </si>
+  <si>
+    <t>是否确认刷新？</t>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打折</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币不足，无法购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法继续购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功购买XXX*数量（XXX为道具名称）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石不足，是否前往充值？</t>
+  </si>
+  <si>
+    <t>商城界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月卡界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权剩余时间：XX天</t>
+  </si>
+  <si>
+    <t>月卡购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定购买30天月卡？</t>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>频道设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽世界频道所有发言</t>
+  </si>
+  <si>
+    <t>屏蔽公会频道所有发言</t>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您输入内容</t>
+  </si>
+  <si>
+    <t>您发送过于频繁，请稍后再试</t>
+  </si>
+  <si>
+    <t>您还没有公会</t>
+  </si>
+  <si>
+    <t>您发送的内容含有非法信息，不能发送</t>
+  </si>
+  <si>
+    <t>打造已达当前人物等级最强效果，快去升级吧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首充赠送XX钻石</t>
+    <rPh sb="1" eb="2">
+      <t>chong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石换金币</t>
+    <rPh sb="0" eb="1">
+      <t>zuan'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jin'bi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Fitting Place</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Gem Casting</t>
+  </si>
+  <si>
+    <t>Not enough Diamonds. Would you like to get more?</t>
+  </si>
+  <si>
+    <t>Monster is now unlocked.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster is now locked.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月11日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabe翻译：宠物装备、商店、IM，MT修改版</t>
+    <rPh sb="4" eb="5">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban'b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! Monster EXP + 9999!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materials Consumed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forging has a set success rate. If it fails, the materials will be lost.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancing equipment cannot fail, don't worry!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! Equipment has been fully forged.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge has already reached the maximum effects for the level of the current character. Go level up!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabe调整宠物相关翻译</t>
+    <rPh sb="4" eb="5">
+      <t>tiao'zheng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiang'g</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fan'yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -568,10 +955,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -582,26 +968,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -614,25 +997,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -663,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,13 +1062,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,8 +1115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="314740" y="314740"/>
-          <a:ext cx="4075043" cy="4729369"/>
+          <a:off x="314740" y="315528"/>
+          <a:ext cx="4060844" cy="5165587"/>
           <a:chOff x="306457" y="256761"/>
           <a:chExt cx="4495238" cy="5180952"/>
         </a:xfrm>
@@ -781,7 +1181,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>130897</xdr:rowOff>
+      <xdr:rowOff>109125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -818,8 +1218,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>45076</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>30562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -856,8 +1256,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>24743</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>10229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -894,8 +1294,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599261</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>195227</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>148055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,8 +1337,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20932</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>122164</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,8 +1413,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179045</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,7 +1452,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>613038</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>108679</xdr:rowOff>
+      <xdr:rowOff>86907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,8 +1489,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>572329</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>51353</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1136,8 +1536,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>362777</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>61291</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>72177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,8 +1574,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>289408</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>149086</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>127314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1212,8 +1612,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530133</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>3957</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>11215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,8 +1659,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>196701</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>7099</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>14356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1300,8 +1700,8 @@
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>281610</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>956524</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>154461</xdr:rowOff>
     </xdr:to>
@@ -1414,7 +1814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1449,7 +1849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1661,7 +2061,7 @@
   <dimension ref="B3:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1675,60 +2075,72 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
@@ -1838,8 +2250,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B4" location="宠物装备!A1" display="宠物装备"/>
-    <hyperlink ref="B5" location="商店!A1" display="商店"/>
+    <hyperlink ref="B4" location="%E5%AE%A0%E7%89%A9%E8%A3%85%E5%A4%87!A1" display="宠物装备"/>
+    <hyperlink ref="B5" location="%E5%95%86%E5%BA%97!A1" display="商店"/>
     <hyperlink ref="B6" location="IM!A1" display="IM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1850,167 +2262,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="13" width="8.83203125" style="1"/>
+    <col min="14" max="14" width="33" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="N3" s="2" t="s">
-        <v>2</v>
+      <c r="N3" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I4" s="1" t="s">
-        <v>3</v>
+      <c r="I4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>5</v>
+      <c r="I5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I6" s="1" t="s">
-        <v>6</v>
+      <c r="I6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I7" s="1" t="s">
-        <v>7</v>
+      <c r="I7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="1" t="s">
-        <v>8</v>
+      <c r="I8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
-        <v>9</v>
+      <c r="I9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
-        <v>10</v>
+      <c r="I10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I11" s="1" t="s">
-        <v>11</v>
+      <c r="I11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="1" t="s">
-        <v>12</v>
+      <c r="I12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="1" t="s">
-        <v>13</v>
+      <c r="I13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>21</v>
+        <v>105</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>122</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
-        <v>37</v>
+        <v>123</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2022,41 +2493,56 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="N34" s="2" t="s">
-        <v>2</v>
+      <c r="N34" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="I35" s="1" t="s">
-        <v>41</v>
+        <v>127</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>42</v>
+        <v>128</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>43</v>
+        <v>129</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>44</v>
+        <v>130</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2079,199 +2565,275 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I59" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="N59" s="2" t="s">
-        <v>2</v>
+      <c r="N59" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I60" s="4" t="s">
-        <v>47</v>
+        <v>133</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I61" s="4" t="s">
-        <v>48</v>
+        <v>134</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I62" s="4" t="s">
-        <v>49</v>
+        <v>135</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I63" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I64" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I65" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I66" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" ht="48" x14ac:dyDescent="0.25">
       <c r="I67" s="5" t="s">
-        <v>102</v>
+        <v>188</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I86" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J86" s="2"/>
-      <c r="N86" s="2" t="s">
-        <v>2</v>
+      <c r="N86" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I87" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I88" s="1" t="s">
-        <v>56</v>
+        <v>142</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I89" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I90" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="I91" s="4" t="s">
-        <v>59</v>
+        <v>145</v>
+      </c>
+      <c r="N91" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I92" s="1" t="s">
-        <v>60</v>
+        <v>146</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I110" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="J110" s="2"/>
-      <c r="N110" s="2" t="s">
-        <v>2</v>
+      <c r="N110" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I111" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="9:14" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="9:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I112" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.25">
       <c r="I113" s="1" t="s">
-        <v>63</v>
+        <v>149</v>
+      </c>
+      <c r="N113" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I114" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I115" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
+      </c>
+      <c r="N115" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>29</v>
+        <v>115</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>35</v>
+        <v>121</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2280,256 +2842,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="20.83203125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="P3" s="2" t="s">
-        <v>2</v>
+      <c r="P3" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K4" s="4" t="s">
-        <v>64</v>
+        <v>150</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="32" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>158</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
-        <v>73</v>
+        <v>159</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>160</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="P22" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" ht="64" x14ac:dyDescent="0.25">
       <c r="K23" s="1" t="s">
-        <v>68</v>
+        <v>154</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>155</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K32" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2"/>
-      <c r="P32" s="2" t="s">
-        <v>2</v>
+      <c r="P32" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K33" s="1" t="s">
-        <v>80</v>
+        <v>166</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K43" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="P43" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="11:16" ht="48" x14ac:dyDescent="0.25">
       <c r="K44" s="1" t="s">
-        <v>81</v>
+        <v>167</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K52" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="P52" s="2" t="s">
-        <v>2</v>
+      <c r="P52" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K53" s="1" t="s">
-        <v>83</v>
+        <v>169</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K54" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="32" x14ac:dyDescent="0.25">
       <c r="K55" s="4" t="s">
-        <v>106</v>
+        <v>191</v>
+      </c>
+      <c r="P55" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K70" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L70" s="2"/>
-      <c r="P70" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P70" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="32" x14ac:dyDescent="0.25">
       <c r="K71" s="1" t="s">
-        <v>86</v>
+        <v>172</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K72" s="1" t="s">
-        <v>87</v>
+        <v>173</v>
+      </c>
+      <c r="P72" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K73" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="P73" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="32" x14ac:dyDescent="0.25">
       <c r="K74" s="1" t="s">
-        <v>89</v>
+        <v>175</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K75" s="1" t="s">
-        <v>90</v>
+        <v>176</v>
+      </c>
+      <c r="P75" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L85" s="2"/>
-      <c r="P85" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P85" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="64" x14ac:dyDescent="0.25">
       <c r="K86" s="1" t="s">
-        <v>108</v>
+        <v>48</v>
+      </c>
+      <c r="P86" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K87" s="1" t="s">
-        <v>109</v>
+        <v>49</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K88" s="1" t="s">
-        <v>110</v>
+        <v>50</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K97" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L97" s="2"/>
-      <c r="P97" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P97" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="48" x14ac:dyDescent="0.25">
       <c r="K98" s="1" t="s">
-        <v>111</v>
+        <v>51</v>
+      </c>
+      <c r="P98" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>78</v>
+        <v>164</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2538,104 +3184,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="15" width="8.83203125" style="1"/>
+    <col min="16" max="16" width="26.5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>177</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
-        <v>92</v>
+        <v>178</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
-        <v>96</v>
+        <v>182</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
-        <v>97</v>
+        <v>183</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K24" s="1" t="s">
-        <v>93</v>
+        <v>179</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
-        <v>94</v>
+        <v>180</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K26" s="1" t="s">
-        <v>95</v>
+        <v>181</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>184</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>185</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>186</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>187</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/cms/language/翻译需求.xlsx
+++ b/cms/language/翻译需求.xlsx
@@ -5,19 +5,22 @@
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="34720" windowHeight="19140" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
     <sheet name="宠物装备" sheetId="1" r:id="rId2"/>
     <sheet name="商店" sheetId="2" r:id="rId3"/>
     <sheet name="IM" sheetId="3" r:id="rId4"/>
+    <sheet name="邮箱" sheetId="5" r:id="rId5"/>
+    <sheet name="任务" sheetId="6" r:id="rId6"/>
+    <sheet name="宠物列表、宠物自身相关（不含装备）" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="339">
   <si>
     <t>This equipment quality is unable to insert Gems.</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -940,12 +943,451 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>未加入公会</t>
+  </si>
+  <si>
+    <t>邀请入会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定屏蔽聊天么？</t>
+  </si>
+  <si>
+    <t>（可以在系统设置取消屏蔽）</t>
+  </si>
+  <si>
+    <t>屏蔽聊天成功</t>
+  </si>
+  <si>
+    <t>请输入信息</t>
+  </si>
+  <si>
+    <t>商店内容已过期</t>
+  </si>
+  <si>
+    <t>XX商店在玩家A—B级时，每天最多刷新X次</t>
+  </si>
+  <si>
+    <t>当前第Y次，是否确认刷新？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统邮件</t>
+  </si>
+  <si>
+    <t>来自：XXXX</t>
+  </si>
+  <si>
+    <t>邮箱即将爆仓，请及时收取邮件</t>
+  </si>
+  <si>
+    <t>邮箱已经爆仓，快快收取邮件</t>
+  </si>
+  <si>
+    <t>一键领取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部收取成功！</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可操作的邮件哦！</t>
+  </si>
+  <si>
+    <t>收取成功！</t>
+  </si>
+  <si>
+    <t>金币要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>钻石要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>列传任务</t>
+  </si>
+  <si>
+    <t>日常任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>三星通关副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>通关精英副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>三星通关精英副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>完成n次任意副本</t>
+  </si>
+  <si>
+    <t>完成n次竞技场挑战</t>
+  </si>
+  <si>
+    <t>升级n次技能</t>
+  </si>
+  <si>
+    <t>购买n次金币</t>
+  </si>
+  <si>
+    <t>角色等级达到X级</t>
+  </si>
+  <si>
+    <t>携带紫色品级的宠物达到x个</t>
+  </si>
+  <si>
+    <t>时间未到</t>
+  </si>
+  <si>
+    <t>领取奖励</t>
+  </si>
+  <si>
+    <t>立刻前往</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
+  </si>
+  <si>
+    <t>完成任务</t>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有宠物界面</t>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>火属性</t>
+  </si>
+  <si>
+    <t>木属性</t>
+  </si>
+  <si>
+    <t>水属性</t>
+  </si>
+  <si>
+    <t>光属性</t>
+  </si>
+  <si>
+    <t>暗属性</t>
+  </si>
+  <si>
+    <t>宠物列表、宠物自身相关（不含装备）</t>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过多宠物，快去消耗一些吧</t>
+  </si>
+  <si>
+    <t>（有可能无法继续获得宠物）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情界面</t>
+  </si>
+  <si>
+    <t>一键装备</t>
+  </si>
+  <si>
+    <t>详细属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力：XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>Spiritual</t>
+  </si>
+  <si>
+    <t>狡猾</t>
+  </si>
+  <si>
+    <t>Mischievous</t>
+  </si>
+  <si>
+    <t>互助</t>
+  </si>
+  <si>
+    <t>Collaborate</t>
+  </si>
+  <si>
+    <t>善良</t>
+  </si>
+  <si>
+    <t>Compassion</t>
+  </si>
+  <si>
+    <t>谨慎</t>
+  </si>
+  <si>
+    <t>Humility</t>
+  </si>
+  <si>
+    <t>宠物技能介绍界面</t>
+  </si>
+  <si>
+    <t>目前的技能点数： XX  （点数已满）</t>
+  </si>
+  <si>
+    <t>物理技能</t>
+  </si>
+  <si>
+    <t>法术技能</t>
+  </si>
+  <si>
+    <t>大招</t>
+  </si>
+  <si>
+    <t>buff技能</t>
+  </si>
+  <si>
+    <t>被动技能</t>
+  </si>
+  <si>
+    <t>等级（X/Y）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前技能已达到最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求等级  :   xx</t>
+  </si>
+  <si>
+    <t>需求材料：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的怪物：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜，装备打造已满！</t>
+  </si>
+  <si>
+    <t>补充IM需求、商店需求、宠物装备需求，蓝色标注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Equip Now</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>BP:</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>PHYS ATK</t>
+  </si>
+  <si>
+    <t>MAGIC ATK</t>
+  </si>
+  <si>
+    <t>本级：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一级：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current:</t>
+  </si>
+  <si>
+    <t>Next LVL:</t>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Req. Materials</t>
+  </si>
+  <si>
+    <t>添加邮箱、任务、宠物列表、宠物自身相关（不含装备）需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters</t>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽名单已满，请先去系统设置中清理再操作</t>
+    <rPh sb="9" eb="10">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>she'zhi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成n次任意困难副本</t>
+    <rPh sb="6" eb="7">
+      <t>kun'nan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带的宠物最高等级达到X级</t>
+    <rPh sb="3" eb="4">
+      <t>chong'wu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1441,8 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1006,6 +1450,44 @@
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1017,7 +1499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF6699FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1071,10 +1553,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1082,6 +1581,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6699FF"/>
+      <color rgb="FF66CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1115,8 +1620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="314740" y="315528"/>
-          <a:ext cx="4060844" cy="5165587"/>
+          <a:off x="314740" y="314740"/>
+          <a:ext cx="4075043" cy="5149021"/>
           <a:chOff x="306457" y="256761"/>
           <a:chExt cx="4495238" cy="5180952"/>
         </a:xfrm>
@@ -1250,13 +1755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>10229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1288,13 +1793,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599261</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>148055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1318,6 +1823,53 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286992</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>153228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6147" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="480391" y="17476304"/>
+          <a:ext cx="3881644" cy="4468467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1445,13 +1997,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>99390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>613038</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>86907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1483,13 +2035,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>248479</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>572329</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>36839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1528,53 +2080,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>362777</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>72177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="629478" y="10750826"/>
-          <a:ext cx="5232951" cy="2976769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>289408</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>127314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1585,7 +2099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1606,13 +2120,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530133</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>11215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1623,7 +2137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1653,13 +2167,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>196701</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>14356</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1670,7 +2184,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1687,41 +2201,83 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>612914</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>956524</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154461</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1390650" y="11487150"/>
+          <a:ext cx="2857500" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="612914" y="1673087"/>
-          <a:ext cx="5168348" cy="3450940"/>
+          <a:off x="1476375" y="6477000"/>
+          <a:ext cx="2743200" cy="1529861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,6 +2286,149 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="下箭头 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7591425" y="5905500"/>
+          <a:ext cx="323850" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>362777</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>72177</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="组合 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="629478" y="14348239"/>
+          <a:ext cx="5122516" cy="2675677"/>
+          <a:chOff x="629478" y="15068550"/>
+          <a:chExt cx="5143499" cy="2815377"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="图片 8"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="629478" y="15068550"/>
+            <a:ext cx="5143499" cy="2815377"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Picture 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2571750" y="15420975"/>
+            <a:ext cx="1057275" cy="197813"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1751,7 +2450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1764,6 +2463,961 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472109</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>434561</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1830457" y="7214152"/>
+          <a:ext cx="1320800" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>64825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231913" y="223632"/>
+          <a:ext cx="5928912" cy="3296475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>511548</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5122" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600076" y="476250"/>
+          <a:ext cx="5397872" cy="3590925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5123" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1847850" y="4686300"/>
+          <a:ext cx="2905125" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5124" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1857375" y="6677025"/>
+          <a:ext cx="2895600" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19528</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="8715375"/>
+          <a:ext cx="4362928" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="371475"/>
+          <a:ext cx="5705475" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>337298</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>92089</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="756478" y="5822675"/>
+          <a:ext cx="4970037" cy="2021936"/>
+          <a:chOff x="800100" y="23317200"/>
+          <a:chExt cx="5066667" cy="2104762"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="800100" y="23317200"/>
+            <a:ext cx="5066667" cy="2104762"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="895350" y="23688675"/>
+            <a:ext cx="2752381" cy="1076191"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="图片 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2409825" y="23783925"/>
+            <a:ext cx="1914286" cy="1028571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>422412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>491889</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1109869" y="8398565"/>
+          <a:ext cx="4194216" cy="2162506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>308941</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4721087" y="8456543"/>
+          <a:ext cx="400050" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>跳过</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654326</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1076739" y="3420718"/>
+          <a:ext cx="3014870" cy="1748221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198783</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562338</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="组合 4"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="198783" y="314740"/>
+          <a:ext cx="5079120" cy="2575891"/>
+          <a:chOff x="198783" y="323022"/>
+          <a:chExt cx="5175751" cy="2683565"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="198783" y="323022"/>
+            <a:ext cx="5175751" cy="2683565"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7169" name="Picture 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3743740" y="588065"/>
+            <a:ext cx="654325" cy="356153"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="1">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd type="none" w="med" len="med"/>
+          </a:ln>
+          <a:effectLst/>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="690217" y="5756414"/>
+          <a:ext cx="3475935" cy="4083325"/>
+          <a:chOff x="7277100" y="15678150"/>
+          <a:chExt cx="3657143" cy="4161905"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7277100" y="15678150"/>
+            <a:ext cx="3657143" cy="4161905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524750" y="16230600"/>
+            <a:ext cx="628650" cy="1800224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FFCC00"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="矩形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10077450" y="16211550"/>
+            <a:ext cx="581025" cy="1800224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FFCC00"/>
+            </a:solidFill>
+            <a:prstDash val="lgDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>236883</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>154884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7170" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695740" y="10957891"/>
+          <a:ext cx="3665882" cy="4105689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7171" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695739" y="15621000"/>
+          <a:ext cx="3627782" cy="4134264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149088</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>104703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7172" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="836545" y="20035630"/>
+          <a:ext cx="3346173" cy="2225052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1814,7 +3468,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,7 +3503,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2061,14 +3715,14 @@
   <dimension ref="B3:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="6"/>
     <col min="2" max="2" width="18" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="6" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="6"/>
   </cols>
@@ -2082,16 +3736,40 @@
       <c r="B4" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
@@ -2143,14 +3821,26 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
@@ -2253,17 +3943,21 @@
     <hyperlink ref="B4" location="%E5%AE%A0%E7%89%A9%E8%A3%85%E5%A4%87!A1" display="宠物装备"/>
     <hyperlink ref="B5" location="%E5%95%86%E5%BA%97!A1" display="商店"/>
     <hyperlink ref="B6" location="IM!A1" display="IM"/>
+    <hyperlink ref="B7" location="邮箱!A1" display="邮箱"/>
+    <hyperlink ref="B8" location="任务!A1" display="任务"/>
+    <hyperlink ref="B9" location="'宠物列表、宠物自身相关（不含装备）'!A1" display="宠物列表、宠物自身相关（不含装备）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -2581,7 +4275,7 @@
       <c r="I60" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2589,7 +4283,7 @@
       <c r="I61" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="N61" s="15" t="s">
+      <c r="N61" s="13" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2597,7 +4291,7 @@
       <c r="I62" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2605,7 +4299,7 @@
       <c r="I63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="N63" s="15" t="s">
+      <c r="N63" s="13" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2613,7 +4307,7 @@
       <c r="I64" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2621,7 +4315,7 @@
       <c r="I65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2629,7 +4323,7 @@
       <c r="I66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N66" s="15" t="s">
+      <c r="N66" s="13" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2637,196 +4331,221 @@
       <c r="I67" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="78" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I79" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79" s="17"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I80" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I86" s="2" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I103" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J86" s="2"/>
-      <c r="N86" s="12" t="s">
+      <c r="J103" s="2"/>
+      <c r="N103" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I87" s="1" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N87" s="11" t="s">
+      <c r="N104" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I88" s="1" t="s">
+    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N88" s="11" t="s">
+      <c r="N105" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I89" s="1" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N89" s="11" t="s">
+      <c r="N106" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I90" s="1" t="s">
+    <row r="107" spans="1:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N90" s="11" t="s">
+      <c r="N107" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="48" x14ac:dyDescent="0.25">
-      <c r="I91" s="4" t="s">
+    <row r="108" spans="1:14" ht="48" x14ac:dyDescent="0.25">
+      <c r="I108" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="N91" s="11" t="s">
+      <c r="N108" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I92" s="1" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N109" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I110" s="2" t="s">
+    <row r="124" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I124" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J110" s="2"/>
-      <c r="N110" s="12" t="s">
+      <c r="J124" s="2"/>
+      <c r="N124" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I111" s="1" t="s">
+    <row r="125" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N111" s="11" t="s">
+      <c r="N125" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="9:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I112" s="1" t="s">
+    <row r="126" spans="9:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N112" s="11" t="s">
+      <c r="N126" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I113" s="1" t="s">
+    <row r="127" spans="9:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="I127" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N127" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I114" s="4" t="s">
+    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I128" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N114" s="11" t="s">
+      <c r="N128" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I115" s="4" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I129" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N129" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H123" s="14" t="s">
+      <c r="H135" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H127" s="4" t="s">
+      <c r="H139" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H140" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H141" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H130" s="4" t="s">
+      <c r="H142" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2840,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -2923,7 +4642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K22" s="2" t="s">
         <v>87</v>
       </c>
@@ -2932,7 +4651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="11:16" ht="64" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" ht="64" x14ac:dyDescent="0.25">
       <c r="K23" s="1" t="s">
         <v>154</v>
       </c>
@@ -2940,7 +4659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="K24" s="1" t="s">
         <v>155</v>
       </c>
@@ -2948,227 +4667,539 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="2" t="s">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="M26" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="P32" s="12" t="s">
+      <c r="L38" s="2"/>
+      <c r="P38" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K33" s="1" t="s">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P39" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K43" s="2" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="2"/>
-      <c r="P43" s="12" t="s">
+      <c r="L49" s="2"/>
+      <c r="P49" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="11:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="K44" s="1" t="s">
+    <row r="50" spans="2:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P44" s="13" t="s">
+      <c r="P50" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K52" s="2" t="s">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K66" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="P52" s="12" t="s">
+      <c r="L66" s="2"/>
+      <c r="P66" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K53" s="1" t="s">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P67" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K54" s="1" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K68" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P68" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K55" s="4" t="s">
+    <row r="69" spans="1:16" ht="32" x14ac:dyDescent="0.25">
+      <c r="K69" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P69" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K70" s="2" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K84" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L70" s="2"/>
-      <c r="P70" s="12" t="s">
+      <c r="L84" s="2"/>
+      <c r="P84" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K71" s="1" t="s">
+    <row r="85" spans="1:16" ht="32" x14ac:dyDescent="0.25">
+      <c r="K85" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="P71" s="13" t="s">
+      <c r="P85" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K72" s="1" t="s">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K86" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P86" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K73" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K74" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K75" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L85" s="2"/>
-      <c r="P85" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="64" x14ac:dyDescent="0.25">
-      <c r="K86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P86" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P87" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="32" x14ac:dyDescent="0.25">
+      <c r="K88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P88" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="P89" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L99" s="2"/>
+      <c r="P99" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="64" x14ac:dyDescent="0.25">
+      <c r="K100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P87" s="11" t="s">
+      <c r="P101" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K88" s="1" t="s">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K102" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P88" s="11" t="s">
+      <c r="P102" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K97" s="2" t="s">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K111" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L97" s="2"/>
-      <c r="P97" s="12" t="s">
+      <c r="L111" s="2"/>
+      <c r="P111" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="K98" s="1" t="s">
+    <row r="112" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="K112" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P98" s="11" t="s">
+      <c r="P112" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="3" t="s">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3182,10 +5213,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P40"/>
+  <dimension ref="A2:P51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -3239,6 +5270,16 @@
         <v>83</v>
       </c>
     </row>
+    <row r="7" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
     <row r="23" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
         <v>87</v>
@@ -3272,50 +5313,240 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3323,4 +5554,811 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:P63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K4" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K5" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K7" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K24" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K34" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K44" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:Q45"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="L24" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L45" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O112"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="O88" sqref="O80:O88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="O31" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" s="20" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J36" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J37" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="O41" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="O42" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J54" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O55" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J56" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="O56" s="20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J57" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J58" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J59" s="20" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J60" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="O60" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J61" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J62" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J63" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J79" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J80" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J81" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J82" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J84" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O84" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J85" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J86" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="O86" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J87" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="O87" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" s="2"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J101" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J102" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="O102" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/cms/language/翻译需求.xlsx
+++ b/cms/language/翻译需求.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Headstreams/Documents/10.21.2.47/资源提交目录/cms/language/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="460" windowWidth="34720" windowHeight="19140" tabRatio="599"/>
+    <workbookView xWindow="38160" yWindow="660" windowWidth="33880" windowHeight="19800" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="任务" sheetId="6" r:id="rId6"/>
     <sheet name="宠物列表、宠物自身相关（不含装备）" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,591 +30,633 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="339">
-  <si>
-    <t>This equipment quality is unable to insert Gems.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Sockets: Reveals a Gem slot after opening.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message contains illicit content, unable to send.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opening Sockets will randomly reveal different amounts of Gem slots.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any inserted Gems will all be returned to your Bag.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Opening Sockets will randomly reveal between "1 and the equipment's maximum amount" of slots.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please select a Gem from the list on the right.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tap a Gem slot to insert a Gem.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tap 'Open Sockets' for a chance of revealing Gem slots.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gem slots are full.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open Sockets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forge success!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forge failed.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability points at max, level up your abilities!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The store can be refreshed a maximum of X times per day. This is refresh number Y. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benefits Time Remaining: XX Day(s)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter message to send.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You have sent messages too frequently. Please try again later.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chat Settings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm Open Sockets?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Can purchase today: X/Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use a small amount of Diamonds to exchange for a large amount of Coins.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next Refresh: Today/Tomorrow XX:XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild Store</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Original Price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continue?</t>
-  </si>
-  <si>
-    <t>Purchase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monthly Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Receive an extra XX Diamonds with purchase.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchased</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top-Up</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirm purchase of 30 day Monthly Card?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get Monthly Card</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spend</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You have purchased the maximum amount for today.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase success!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insufficient currency, unable to purchase.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unable to continue purchase.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Successfully purchased XXX * amount.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>You have not joined a Guild.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP increase/decrease 9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Insufficient amount of required items.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refresh</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sold Out!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用少量钻石兑换大量金币</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日可买：X/Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否花费</t>
-    <rPh sb="0" eb="1">
-      <t>shi'fou</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="411">
+  <si>
+    <t>Current Ability Points: XX (Full)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have too many monsters, go and consume some!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin limit reached. Failed to collect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond limit reached. Failed to collect.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm block chat?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission Completed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability currently at its max LVL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store items have already expired.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently no mail to be collected.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete any n difficult stages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete n challenges in Arena</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff Ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive Ability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(You may possibly not receive any more monsters)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancement Complete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Available Later</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level up abilities n times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reach character level X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have X purple quality monsters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have a monster reach a max of level X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your inbox is almost full, be sure to promptly collect mails!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your inbox is full, go collect some mails!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collected!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collected all!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Now</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Gold Coins n times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear stage with 3-Stars: Chapter X - Stage Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Heroic stage: Chapter X - Stage Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear stage: Chapter X - Stage Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear Heroic stage with 3-Stars: Chapter X - Stage Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete any n stages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Players level A-B may refresh the XX Store X times per day. This is refresh number Y. Continue?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Blocked chats can be managed in system settings)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block list is full. Please clear some blocked chats in System Settings, and try again.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat is now blocked.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inbox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attachments</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽名单已满，请先去系统设置中清理再操作</t>
+    <rPh sb="9" eb="10">
+      <t>qu</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>hua'fei</t>
+    <rPh sb="10" eb="11">
+      <t>xi'tong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日可买次数已经用完。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <rPh sb="0" eb="1">
-      <t>mu'lu</t>
+    <rPh sb="12" eb="13">
+      <t>she'zhi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新记录</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
+    <rPh sb="14" eb="15">
+      <t>zhong</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>ji'lu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成n次任意困难副本</t>
+    <rPh sb="6" eb="7">
+      <t>kun'nan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <rPh sb="0" eb="1">
-      <t>r'q</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年09月10日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>nei'rong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <rPh sb="0" eb="1">
-      <t>geng'xin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <rPh sb="0" eb="1">
-      <t>xue</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加宠物装备，商店，IM需求</t>
-    <rPh sb="0" eb="1">
-      <t>tian'jia</t>
-    </rPh>
-    <rPh sb="2" eb="3">
+    <t>携带的宠物最高等级达到X级</t>
+    <rPh sb="3" eb="4">
       <t>chong'wu</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! Equipment has been fully forged!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invite to guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Mission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Side Mission</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gabe调整宠物相关翻译</t>
     <rPh sb="4" eb="5">
-      <t>zhuang'b</t>
+      <t>tiao'zheng</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>shang'dian</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>xu'qiu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备</t>
-    <rPh sb="0" eb="1">
+    <rPh sb="6" eb="7">
       <t>chong'wu</t>
     </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhuang'bei</t>
+    <rPh sb="8" eb="9">
+      <t>xiang'g</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <rPh sb="0" eb="1">
-      <t>shang'dian</t>
+    <rPh sb="10" eb="11">
+      <t>fan'yi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Armor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bracelet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amulet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Attributes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remove</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Change</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not engraved</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHYS Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magic Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Support Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Send</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block all Global Chat messages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block all Guild Chat messages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物装备详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护腰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手镯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>戒指</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>护身符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级限制</t>
+    <t>未加入公会</t>
+  </si>
+  <si>
+    <t>邀请入会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定屏蔽聊天么？</t>
+  </si>
+  <si>
+    <t>（可以在系统设置取消屏蔽）</t>
+  </si>
+  <si>
+    <t>屏蔽聊天成功</t>
+  </si>
+  <si>
+    <t>请输入信息</t>
+  </si>
+  <si>
+    <t>商店内容已过期</t>
+  </si>
+  <si>
+    <t>XX商店在玩家A—B级时，每天最多刷新X次</t>
+  </si>
+  <si>
+    <t>当前第Y次，是否确认刷新？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱即将爆仓，请及时收取邮件</t>
+  </si>
+  <si>
+    <t>邮箱已经爆仓，快快收取邮件</t>
+  </si>
+  <si>
+    <t>一键领取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部收取成功！</t>
+  </si>
+  <si>
+    <t>附件</t>
+  </si>
+  <si>
+    <t>收取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可操作的邮件哦！</t>
+  </si>
+  <si>
+    <t>收取成功！</t>
+  </si>
+  <si>
+    <t>金币要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>钻石要装不下啦，收取失败！</t>
+  </si>
+  <si>
+    <t>列传任务</t>
+  </si>
+  <si>
+    <t>日常任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>三星通关副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>通关精英副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>三星通关精英副本：第X章-副本名称</t>
+  </si>
+  <si>
+    <t>完成n次任意副本</t>
+  </si>
+  <si>
+    <t>完成n次竞技场挑战</t>
+  </si>
+  <si>
+    <t>升级n次技能</t>
+  </si>
+  <si>
+    <t>购买n次金币</t>
+  </si>
+  <si>
+    <t>角色等级达到X级</t>
+  </si>
+  <si>
+    <t>携带紫色品级的宠物达到x个</t>
+  </si>
+  <si>
+    <t>时间未到</t>
+  </si>
+  <si>
+    <t>领取奖励</t>
+  </si>
+  <si>
+    <t>立刻前往</t>
+  </si>
+  <si>
+    <t>任务奖励</t>
+  </si>
+  <si>
+    <t>完成任务</t>
+  </si>
+  <si>
+    <t>好的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家拥有宠物界面</t>
+  </si>
+  <si>
+    <t>宠物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>火属性</t>
+  </si>
+  <si>
+    <t>木属性</t>
+  </si>
+  <si>
+    <t>水属性</t>
+  </si>
+  <si>
+    <t>光属性</t>
+  </si>
+  <si>
+    <t>暗属性</t>
+  </si>
+  <si>
+    <t>宠物列表、宠物自身相关（不含装备）</t>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（有可能无法继续获得宠物）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物详情界面</t>
+  </si>
+  <si>
+    <t>一键装备</t>
+  </si>
+  <si>
+    <t>详细属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇敢</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>聪慧</t>
+  </si>
+  <si>
+    <t>Spiritual</t>
+  </si>
+  <si>
+    <t>狡猾</t>
+  </si>
+  <si>
+    <t>Mischievous</t>
+  </si>
+  <si>
+    <t>互助</t>
+  </si>
+  <si>
+    <t>Collaborate</t>
+  </si>
+  <si>
+    <t>善良</t>
+  </si>
+  <si>
+    <t>Compassion</t>
+  </si>
+  <si>
+    <t>谨慎</t>
+  </si>
+  <si>
+    <t>Humility</t>
+  </si>
+  <si>
+    <t>宠物技能介绍界面</t>
+  </si>
+  <si>
+    <t>目前的技能点数： XX  （点数已满）</t>
+  </si>
+  <si>
+    <t>物理技能</t>
+  </si>
+  <si>
+    <t>法术技能</t>
+  </si>
+  <si>
+    <t>大招</t>
+  </si>
+  <si>
+    <t>buff技能</t>
+  </si>
+  <si>
+    <t>被动技能</t>
+  </si>
+  <si>
+    <t>当前技能已达到最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物进阶界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>基础属性</t>
-  </si>
-  <si>
-    <t>体力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>SPD</t>
-  </si>
-  <si>
-    <t>宝石加成</t>
-  </si>
-  <si>
-    <t>该品质装备不可镶嵌宝石</t>
-  </si>
-  <si>
-    <t>未开孔：开孔后将获得宝石槽</t>
-  </si>
-  <si>
-    <t>未镶嵌</t>
-  </si>
-  <si>
-    <t>卸下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能点数已满，快来升级技能吧</t>
-  </si>
-  <si>
-    <t>需求道具不足</t>
-  </si>
-  <si>
-    <t>宠物锁定成功</t>
-  </si>
-  <si>
-    <t>打造成功</t>
-  </si>
-  <si>
-    <t>打造失败</t>
-  </si>
-  <si>
-    <t>恭喜，宠物经验+9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力上升/下降9999</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物解锁成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打造</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>镶嵌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Embed</t>
-  </si>
-  <si>
-    <t>装备列表详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御型</t>
-  </si>
-  <si>
-    <t>物理型</t>
-  </si>
-  <si>
-    <t>法术型</t>
-  </si>
-  <si>
-    <t>支援型</t>
-  </si>
-  <si>
-    <t>装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备强化、进阶界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗材料</t>
-  </si>
-  <si>
-    <t>强化打造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜，装备打造已满！</t>
+  </si>
+  <si>
+    <t>补充IM需求、商店需求、宠物装备需求，蓝色标注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Equip Now</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>BP:</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>PHYS ATK</t>
+  </si>
+  <si>
+    <t>MAGIC ATK</t>
+  </si>
+  <si>
+    <t>下一级：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current:</t>
+  </si>
+  <si>
+    <t>Next LVL:</t>
+  </si>
+  <si>
+    <t>添加邮箱、任务、宠物列表、宠物自身相关（不含装备）需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters</t>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -809,10 +851,6 @@
   </si>
   <si>
     <t>Cancel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -928,458 +966,759 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gabe调整宠物相关翻译</t>
-    <rPh sb="4" eb="5">
-      <t>tiao'zheng</t>
+    <t>Insufficient amount of required items.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold Out!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用少量钻石兑换大量金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日可买：X/Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否花费</t>
+    <rPh sb="0" eb="1">
+      <t>shi'fou</t>
     </rPh>
-    <rPh sb="6" eb="7">
+    <rPh sb="2" eb="3">
+      <t>hua'fei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日可买次数已经用完。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <rPh sb="0" eb="1">
+      <t>mu'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新记录</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'lu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>r'q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'rong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <rPh sb="0" eb="1">
+      <t>geng'xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <rPh sb="0" eb="1">
+      <t>xue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加宠物装备，商店，IM需求</t>
+    <rPh sb="0" eb="1">
+      <t>tian'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>chong'wu</t>
     </rPh>
-    <rPh sb="8" eb="9">
-      <t>xiang'g</t>
+    <rPh sb="4" eb="5">
+      <t>zhuang'b</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shang'dian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备</t>
+    <rPh sb="0" eb="1">
+      <t>chong'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang'bei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <rPh sb="0" eb="1">
+      <t>shang'dian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bracelet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amulet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Attributes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not engraved</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHYS Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block all Global Chat messages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block all Guild Chat messages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物装备详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备部位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手镯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护身符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础属性</t>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>宝石加成</t>
+  </si>
+  <si>
+    <t>该品质装备不可镶嵌宝石</t>
+  </si>
+  <si>
+    <t>未开孔：开孔后将获得宝石槽</t>
+  </si>
+  <si>
+    <t>未镶嵌</t>
+  </si>
+  <si>
+    <t>卸下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能点数已满，快来升级技能吧</t>
+  </si>
+  <si>
+    <t>需求道具不足</t>
+  </si>
+  <si>
+    <t>宠物锁定成功</t>
+  </si>
+  <si>
+    <t>打造成功</t>
+  </si>
+  <si>
+    <t>打造失败</t>
+  </si>
+  <si>
+    <t>恭喜，宠物经验+9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力上升/下降9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物解锁成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镶嵌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Embed</t>
+  </si>
+  <si>
+    <t>装备列表详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御型</t>
+  </si>
+  <si>
+    <t>物理型</t>
+  </si>
+  <si>
+    <t>法术型</t>
+  </si>
+  <si>
+    <t>支援型</t>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化、进阶界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗材料</t>
+  </si>
+  <si>
+    <t>强化打造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>This equipment quality is unable to insert Gems.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Sockets: Reveals a Gem slot after opening.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message contains illicit content, unable to send.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening Sockets will randomly reveal different amounts of Gem slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any inserted Gems will all be returned to your Bag.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opening Sockets will randomly reveal between "1 and the equipment's maximum amount" of slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select a Gem from the list on the right.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap a Gem slot to insert a Gem.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tap 'Open Sockets' for a chance of revealing Gem slots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem slots are full.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open Sockets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge success!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge failed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability points at max, level up your abilities!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The store can be refreshed a maximum of X times per day. This is refresh number Y. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benefits Time Remaining: XX Day(s)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter message to send.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have sent messages too frequently. Please try again later.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chat Settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm Open Sockets?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can purchase today: X/Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use a small amount of Diamonds to exchange for a large amount of Coins.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Refresh: Today/Tomorrow XX:XX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild Store</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original Price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue?</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monthly Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive an extra XX Diamonds with purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchased</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top-Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm purchase of 30 day Monthly Card?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get Monthly Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have purchased the maximum amount for today.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase success!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insufficient currency, unable to purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to continue purchase.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have not joined a Guild.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BP increase/decrease 9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有过多宠物，快去消耗一些吧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月24日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storyline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chronicle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日还可刷新Y次，是否确认刷新？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月23日翻译结果更新</t>
+    <rPh sb="11" eb="12">
+      <t>fan'yi</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jie'guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>geng'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can refresh Y more times today. Continue?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Req. Materials</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">需求材料 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">需求等级 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要的怪物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Req. Monsters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">From: </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Successfully purchased XXX * amount.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统邮件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年09月26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kathy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Req. LVL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟雪姬确认冒号问题并回归；系统邮件翻译过长，删减
+修改体力翻译为sta，增加生命值翻译，耐力值翻译</t>
+    <rPh sb="0" eb="1">
+      <t>gen'xue'ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xue'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mao'hao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen'ti</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>bing</t>
     </rPh>
     <rPh sb="10" eb="11">
+      <t>hui'gui</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xi'tong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>you'jian</t>
+    </rPh>
+    <rPh sb="17" eb="18">
       <t>fan'yi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未加入公会</t>
-  </si>
-  <si>
-    <t>邀请入会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定屏蔽聊天么？</t>
-  </si>
-  <si>
-    <t>（可以在系统设置取消屏蔽）</t>
-  </si>
-  <si>
-    <t>屏蔽聊天成功</t>
-  </si>
-  <si>
-    <t>请输入信息</t>
-  </si>
-  <si>
-    <t>商店内容已过期</t>
-  </si>
-  <si>
-    <t>XX商店在玩家A—B级时，每天最多刷新X次</t>
-  </si>
-  <si>
-    <t>当前第Y次，是否确认刷新？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改了一下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
-  </si>
-  <si>
-    <t>任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统邮件</t>
-  </si>
-  <si>
-    <t>来自：XXXX</t>
-  </si>
-  <si>
-    <t>邮箱即将爆仓，请及时收取邮件</t>
-  </si>
-  <si>
-    <t>邮箱已经爆仓，快快收取邮件</t>
-  </si>
-  <si>
-    <t>一键领取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部收取成功！</t>
-  </si>
-  <si>
-    <t>附件</t>
-  </si>
-  <si>
-    <t>收取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有可操作的邮件哦！</t>
-  </si>
-  <si>
-    <t>收取成功！</t>
-  </si>
-  <si>
-    <t>金币要装不下啦，收取失败！</t>
-  </si>
-  <si>
-    <t>钻石要装不下啦，收取失败！</t>
-  </si>
-  <si>
-    <t>列传任务</t>
-  </si>
-  <si>
-    <t>日常任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关副本：第X章-副本名称</t>
-  </si>
-  <si>
-    <t>三星通关副本：第X章-副本名称</t>
-  </si>
-  <si>
-    <t>通关精英副本：第X章-副本名称</t>
-  </si>
-  <si>
-    <t>三星通关精英副本：第X章-副本名称</t>
-  </si>
-  <si>
-    <t>完成n次任意副本</t>
-  </si>
-  <si>
-    <t>完成n次竞技场挑战</t>
-  </si>
-  <si>
-    <t>升级n次技能</t>
-  </si>
-  <si>
-    <t>购买n次金币</t>
-  </si>
-  <si>
-    <t>角色等级达到X级</t>
-  </si>
-  <si>
-    <t>携带紫色品级的宠物达到x个</t>
-  </si>
-  <si>
-    <t>时间未到</t>
-  </si>
-  <si>
-    <t>领取奖励</t>
-  </si>
-  <si>
-    <t>立刻前往</t>
-  </si>
-  <si>
-    <t>任务奖励</t>
-  </si>
-  <si>
-    <t>完成任务</t>
-  </si>
-  <si>
-    <t>好的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支线任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家拥有宠物界面</t>
-  </si>
-  <si>
-    <t>宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>火属性</t>
-  </si>
-  <si>
-    <t>木属性</t>
-  </si>
-  <si>
-    <t>水属性</t>
-  </si>
-  <si>
-    <t>光属性</t>
-  </si>
-  <si>
-    <t>暗属性</t>
-  </si>
-  <si>
-    <t>宠物列表、宠物自身相关（不含装备）</t>
-  </si>
-  <si>
-    <t>提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有过多宠物，快去消耗一些吧</t>
-  </si>
-  <si>
-    <t>（有可能无法继续获得宠物）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物详情界面</t>
-  </si>
-  <si>
-    <t>一键装备</t>
-  </si>
-  <si>
-    <t>详细属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战力：XX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇敢</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>聪慧</t>
-  </si>
-  <si>
-    <t>Spiritual</t>
-  </si>
-  <si>
-    <t>狡猾</t>
-  </si>
-  <si>
-    <t>Mischievous</t>
-  </si>
-  <si>
-    <t>互助</t>
-  </si>
-  <si>
-    <t>Collaborate</t>
-  </si>
-  <si>
-    <t>善良</t>
-  </si>
-  <si>
-    <t>Compassion</t>
-  </si>
-  <si>
-    <t>谨慎</t>
-  </si>
-  <si>
-    <t>Humility</t>
-  </si>
-  <si>
-    <t>宠物技能介绍界面</t>
-  </si>
-  <si>
-    <t>目前的技能点数： XX  （点数已满）</t>
-  </si>
-  <si>
-    <t>物理技能</t>
-  </si>
-  <si>
-    <t>法术技能</t>
-  </si>
-  <si>
-    <t>大招</t>
-  </si>
-  <si>
-    <t>buff技能</t>
-  </si>
-  <si>
-    <t>被动技能</t>
-  </si>
-  <si>
-    <t>等级（X/Y）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前技能已达到最高等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物进阶界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求等级  :   xx</t>
-  </si>
-  <si>
-    <t>需求材料：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进阶完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要的怪物：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗力：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BP：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜，装备打造已满！</t>
-  </si>
-  <si>
-    <t>补充IM需求、商店需求、宠物装备需求，蓝色标注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Equip Now</t>
-  </si>
-  <si>
-    <t>Details</t>
+    <rPh sb="19" eb="20">
+      <t>guo'chang</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shan'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BP:</t>
-  </si>
-  <si>
-    <t>Abilities</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Evolve</t>
-  </si>
-  <si>
-    <t>PHYS ATK</t>
-  </si>
-  <si>
-    <t>MAGIC ATK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>本级：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下一级：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current:</t>
-  </si>
-  <si>
-    <t>Next LVL:</t>
-  </si>
-  <si>
-    <t>LV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Req. Materials</t>
-  </si>
-  <si>
-    <t>添加邮箱、任务、宠物列表、宠物自身相关（不含装备）需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monsters</t>
-  </si>
-  <si>
-    <t>Fire</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Light</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽名单已满，请先去系统设置中清理再操作</t>
-    <rPh sb="9" eb="10">
-      <t>qu</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>she'zhi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zhong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成n次任意困难副本</t>
-    <rPh sb="6" eb="7">
-      <t>kun'nan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带的宠物最高等级达到X级</t>
-    <rPh sb="3" eb="4">
-      <t>chong'wu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年09月23日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015年09月23日</t>
+    <t>等级:（X/Y）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVL:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1387,7 +1726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,11 +1781,43 @@
       <color indexed="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1458,39 +1829,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1500,6 +1840,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,7 +1890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1553,17 +1911,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1574,6 +1926,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1620,8 +1988,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="314740" y="314740"/>
-          <a:ext cx="4075043" cy="5149021"/>
+          <a:off x="314740" y="315528"/>
+          <a:ext cx="4060844" cy="4748302"/>
           <a:chOff x="306457" y="256761"/>
           <a:chExt cx="4495238" cy="5180952"/>
         </a:xfrm>
@@ -1723,8 +2091,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>30562</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>66847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,14 +2123,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>10229</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>37443</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1793,14 +2161,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599261</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>148055</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>166197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1831,14 +2199,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>480391</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>286992</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>153228</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>162299</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1889,8 +2257,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20932</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100393</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1965,8 +2333,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>151831</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1983,8 +2351,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1499152" y="4431197"/>
-          <a:ext cx="2774674" cy="1545674"/>
+          <a:off x="1471543" y="4467088"/>
+          <a:ext cx="2719457" cy="1482569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1997,14 +2365,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>356152</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>99390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>613038</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>86907</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>86909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,15 +2402,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>248479</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>182218</xdr:rowOff>
+      <xdr:colOff>369957</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>193262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>572329</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>36839</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>20155</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>58927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2060,8 +2428,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1623392" y="8671892"/>
-          <a:ext cx="2386220" cy="1318591"/>
+          <a:off x="1717261" y="11877262"/>
+          <a:ext cx="2344807" cy="1257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,14 +2450,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>289408</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>127314</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>149401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2120,14 +2488,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530133</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>11215</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>33301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2167,14 +2535,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>196701</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>14356</xdr:rowOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2205,14 +2573,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>30093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2251,15 +2619,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>134868</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>69021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:colOff>172968</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2276,8 +2644,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="6477000"/>
-          <a:ext cx="2743200" cy="1529861"/>
+          <a:off x="1482172" y="5833717"/>
+          <a:ext cx="2732709" cy="1465809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2344,13 +2712,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>362777</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>72177</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2360,8 +2728,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="629478" y="14348239"/>
-          <a:ext cx="5122516" cy="2675677"/>
+          <a:off x="629478" y="15651370"/>
+          <a:ext cx="5122516" cy="2465850"/>
           <a:chOff x="629478" y="15068550"/>
           <a:chExt cx="5143499" cy="2815377"/>
         </a:xfrm>
@@ -2422,6 +2790,180 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2920629" cy="1606343"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="25412700"/>
+          <a:ext cx="2920629" cy="1606343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="730158" cy="292062"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8004175" y="26476325"/>
+          <a:ext cx="730158" cy="292062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2673009" cy="717550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="25663525"/>
+          <a:ext cx="2673009" cy="717550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文本框 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6734176" y="25781000"/>
+          <a:ext cx="2397124" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>今日还可刷新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>次，是否确认刷新？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2568,7 +3110,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>511548</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>74681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2614,8 +3156,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2662,7 +3204,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2709,7 +3251,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>19528</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2752,7 +3294,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2799,8 +3341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="756478" y="5822675"/>
-          <a:ext cx="4970037" cy="2021936"/>
+          <a:off x="760159" y="5950779"/>
+          <a:ext cx="4995806" cy="2066110"/>
           <a:chOff x="800100" y="23317200"/>
           <a:chExt cx="5066667" cy="2104762"/>
         </a:xfrm>
@@ -2887,8 +3429,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>491889</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>744</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3057,8 +3599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="198783" y="314740"/>
-          <a:ext cx="5079120" cy="2575891"/>
+          <a:off x="198783" y="315528"/>
+          <a:ext cx="5062555" cy="2586146"/>
           <a:chOff x="198783" y="323022"/>
           <a:chExt cx="5175751" cy="2683565"/>
         </a:xfrm>
@@ -3150,8 +3692,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="690217" y="5756414"/>
-          <a:ext cx="3475935" cy="4083325"/>
+          <a:off x="687851" y="5778501"/>
+          <a:ext cx="3464102" cy="4099890"/>
           <a:chOff x="7277100" y="15678150"/>
           <a:chExt cx="3657143" cy="4161905"/>
         </a:xfrm>
@@ -3292,7 +3834,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>236883</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>154884</xdr:rowOff>
+      <xdr:rowOff>143841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3339,7 +3881,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>198782</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>84069</xdr:rowOff>
+      <xdr:rowOff>84070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3386,7 +3928,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>57979</xdr:colOff>
       <xdr:row>109</xdr:row>
-      <xdr:rowOff>104703</xdr:rowOff>
+      <xdr:rowOff>104704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3468,7 +4010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3503,7 +4045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3715,7 +4257,7 @@
   <dimension ref="B3:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -3729,128 +4271,140 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="22"/>
+        <v>260</v>
+      </c>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="22"/>
+        <v>261</v>
+      </c>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="22"/>
+        <v>262</v>
+      </c>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="22"/>
+      <c r="B7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="22"/>
+      <c r="B8" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C9" s="22"/>
+      <c r="B9" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>213</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>311</v>
+        <v>45</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="34" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
@@ -3943,239 +4497,238 @@
     <hyperlink ref="B4" location="%E5%AE%A0%E7%89%A9%E8%A3%85%E5%A4%87!A1" display="宠物装备"/>
     <hyperlink ref="B5" location="%E5%95%86%E5%BA%97!A1" display="商店"/>
     <hyperlink ref="B6" location="IM!A1" display="IM"/>
-    <hyperlink ref="B7" location="邮箱!A1" display="邮箱"/>
-    <hyperlink ref="B8" location="任务!A1" display="任务"/>
-    <hyperlink ref="B9" location="'宠物列表、宠物自身相关（不含装备）'!A1" display="宠物列表、宠物自身相关（不含装备）"/>
+    <hyperlink ref="B7" location="%E9%82%AE%E7%AE%B1!A1" display="邮箱"/>
+    <hyperlink ref="B8" location="%E4%BB%BB%E5%8A%A1!A1" display="任务"/>
+    <hyperlink ref="B9" location="'%E5%AE%A0%E7%89%A9%E5%88%97%E8%A1%A8%E3%80%81%E5%AE%A0%E7%89%A9%E8%87%AA%E8%BA%AB%E7%9B%B8%E5%85%B3%EF%BC%88%E4%B8%8D%E5%90%AB%E8%A3%85%E5%A4%87%EF%BC%89'!A1" display="宠物列表、宠物自身相关（不含装备）"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A122" zoomScale="140" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110:N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="8.83203125" style="1"/>
-    <col min="14" max="14" width="33" style="11" customWidth="1"/>
+    <col min="14" max="14" width="33" style="29" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="N3" s="12" t="s">
-        <v>88</v>
+      <c r="N3" s="30" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>193</v>
+        <v>289</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>91</v>
+        <v>401</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>194</v>
+        <v>290</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>63</v>
+        <v>291</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>64</v>
+        <v>292</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>65</v>
+        <v>293</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>66</v>
+        <v>294</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>67</v>
+        <v>295</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>68</v>
+        <v>296</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>195</v>
+        <v>297</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>69</v>
+        <v>298</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>190</v>
+        <v>299</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>70</v>
+        <v>300</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>71</v>
+        <v>301</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>106</v>
+        <v>302</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>107</v>
+        <v>303</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>1</v>
+        <v>308</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>74</v>
+        <v>309</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>72</v>
+        <v>310</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>73</v>
+        <v>320</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>196</v>
+        <v>321</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>125</v>
+        <v>322</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>126</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4187,56 +4740,56 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="N34" s="12" t="s">
-        <v>88</v>
+      <c r="N34" s="30" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="I35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>75</v>
+        <v>325</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="I36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>76</v>
+        <v>326</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="I37" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>77</v>
+        <v>327</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="I38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>78</v>
+        <v>328</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="I39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>79</v>
+        <v>329</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -4259,294 +4812,331 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I59" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="N59" s="12" t="s">
-        <v>88</v>
+      <c r="N59" s="30" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I60" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N60" s="13" t="s">
-        <v>205</v>
+      <c r="I60" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I61" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N61" s="13" t="s">
-        <v>206</v>
+      <c r="I61" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="38" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I62" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N62" s="13" t="s">
-        <v>207</v>
+        <v>333</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I63" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="N63" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I64" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N64" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="9:14" ht="32" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I64" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I65" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N65" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="9:14" ht="32" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I66" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N66" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="9:14" ht="48" x14ac:dyDescent="0.25">
-      <c r="I67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I68" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="87" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I87" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I88" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I110" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J110" s="2"/>
+      <c r="N110" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N111" s="29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="N112" s="29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="113" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N113" s="29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="114" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N114" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I115" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N115" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N116" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I133" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="N133" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N134" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N135" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I136" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N136" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I137" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N137" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I138" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="N67" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I79" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="17"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I80" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="16"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I103" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J103" s="2"/>
-      <c r="N103" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I104" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N104" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I105" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="N105" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I106" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N106" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I107" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N107" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="48" x14ac:dyDescent="0.25">
-      <c r="I108" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N108" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I109" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N109" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I124" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J124" s="2"/>
-      <c r="N124" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I125" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N125" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="9:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I126" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="N126" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="9:14" ht="32" x14ac:dyDescent="0.25">
-      <c r="I127" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N127" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I128" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N128" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I129" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N129" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>12</v>
+      <c r="N138" s="29" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H142" s="4" t="s">
-        <v>199</v>
+      <c r="A142" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H144" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4559,648 +5149,876 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P130"/>
+  <dimension ref="A1:P140"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="8.83203125" style="1"/>
-    <col min="16" max="16" width="20.83203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="20.83203125" style="29" customWidth="1"/>
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L3" s="2"/>
-      <c r="P3" s="12" t="s">
-        <v>88</v>
+      <c r="P3" s="30" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>22</v>
+        <v>181</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>23</v>
+        <v>183</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>45</v>
+        <v>184</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>46</v>
+        <v>189</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>47</v>
+        <v>190</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="P22" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" ht="64" x14ac:dyDescent="0.25">
-      <c r="K23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="M26" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="2:16" ht="59" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="P48" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K59" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="P59" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="34"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="34"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="34"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="34"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="34"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="34"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="34"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K76" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L76" s="2"/>
+      <c r="P76" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P77" s="29" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P78" s="29" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K79" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L94" s="2"/>
+      <c r="P94" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K95" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P96" s="29" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="P97" s="29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K98" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P98" s="29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P99" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="16"/>
-    </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="P38" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K39" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K49" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="P49" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="K50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="16"/>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="16"/>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="16"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="16"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="16"/>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="16"/>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="16"/>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="16"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K66" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L66" s="2"/>
-      <c r="P66" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="P67" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K68" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="P68" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K69" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L84" s="2"/>
-      <c r="P84" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K85" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P85" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K86" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P86" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K87" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P87" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="32" x14ac:dyDescent="0.25">
-      <c r="K88" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P88" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K89" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P89" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L99" s="2"/>
-      <c r="P99" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="64" x14ac:dyDescent="0.25">
-      <c r="K100" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P100" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K101" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P101" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K102" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P102" s="11" t="s">
-        <v>35</v>
+      <c r="K109" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L109" s="2"/>
+      <c r="P109" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="P110" s="29" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K111" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L111" s="2"/>
-      <c r="P111" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="48" x14ac:dyDescent="0.25">
+      <c r="K111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P111" s="29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K112" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P112" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>39</v>
+        <v>250</v>
+      </c>
+      <c r="P112" s="29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K121" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L121" s="2"/>
+      <c r="P121" s="30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" spans="11:16" x14ac:dyDescent="0.25">
+      <c r="K122" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P122" s="29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5216,7 +6034,7 @@
   <dimension ref="A2:P51"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -5231,86 +6049,88 @@
   <sheetData>
     <row r="2" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K3" s="1" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K4" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K5" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K6" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K7" s="15" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="P7" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K24" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>18</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K25" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K26" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -5338,15 +6158,15 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L35" s="17"/>
+      <c r="K35" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" s="16"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
-      <c r="P35" s="17" t="s">
-        <v>88</v>
+      <c r="P35" s="16" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5359,13 +6179,15 @@
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
+      <c r="P36" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
@@ -5377,13 +6199,15 @@
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="P37" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C38" s="15"/>
@@ -5395,13 +6219,15 @@
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="P38" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
@@ -5413,13 +6239,15 @@
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
+      <c r="P39" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
@@ -5431,13 +6259,15 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
+      <c r="P40" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
@@ -5473,59 +6303,61 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2</v>
+        <v>337</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="H50" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
@@ -5534,14 +6366,16 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="H51" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
@@ -5560,116 +6394,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:P63"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="20"/>
+    <col min="1" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K3" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K4" s="20" t="s">
-        <v>228</v>
+      <c r="K4" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K5" s="20" t="s">
-        <v>229</v>
+      <c r="K5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="20" t="s">
-        <v>230</v>
+      <c r="K6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K7" s="23" t="s">
-        <v>233</v>
+      <c r="K7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K8" s="20" t="s">
-        <v>235</v>
+      <c r="K8" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K9" s="20" t="s">
-        <v>236</v>
+      <c r="K9" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="20" t="s">
-        <v>231</v>
+      <c r="K24" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K33" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K34" s="20" t="s">
-        <v>232</v>
+      <c r="K34" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="11:16" x14ac:dyDescent="0.25">
       <c r="K43" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K44" s="20" t="s">
-        <v>234</v>
+      <c r="K44" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -5677,32 +6538,45 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="20" t="s">
-        <v>237</v>
+      <c r="B60" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="20" t="s">
-        <v>238</v>
+      <c r="B61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
-        <v>239</v>
+      <c r="B62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="20" t="s">
-        <v>240</v>
+      <c r="B63" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5711,654 +6585,790 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:Q45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:N20"/>
+    <sheetView topLeftCell="F21" zoomScale="150" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="20"/>
+    <col min="1" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="20" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L5" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="20" t="s">
-        <v>244</v>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="20" t="s">
-        <v>245</v>
+      <c r="L11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="20" t="s">
-        <v>246</v>
+      <c r="L12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="20" t="s">
-        <v>247</v>
+      <c r="L13" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="20" t="s">
-        <v>248</v>
+      <c r="L14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="20" t="s">
-        <v>335</v>
+      <c r="L15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L16" s="20" t="s">
-        <v>249</v>
+      <c r="L16" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L17" s="20" t="s">
-        <v>250</v>
+      <c r="L17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L18" s="20" t="s">
-        <v>251</v>
+      <c r="L18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="20" t="s">
-        <v>252</v>
+      <c r="L19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="20" t="s">
-        <v>336</v>
+      <c r="L20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="20" t="s">
-        <v>253</v>
+      <c r="L21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="20" t="s">
-        <v>254</v>
+      <c r="L22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L23" s="20" t="s">
-        <v>255</v>
+      <c r="L23" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="L24" s="20" t="s">
-        <v>256</v>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="L24" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="L30" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L31" s="20" t="s">
-        <v>257</v>
+      <c r="L31" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="L32" s="20" t="s">
-        <v>258</v>
+      <c r="L32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L33" s="20" t="s">
-        <v>259</v>
+      <c r="L33" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L44" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="2" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L45" s="20" t="s">
-        <v>260</v>
+      <c r="L45" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O88" sqref="O80:O88"/>
+    <sheetView topLeftCell="A99" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="20"/>
+    <col min="1" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>263</v>
+      <c r="A1" s="23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="12" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J4" s="1" t="s">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="11" t="s">
-        <v>328</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J5" s="1" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="11" t="s">
-        <v>312</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J6" s="1" t="s">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="24" t="s">
-        <v>329</v>
+      <c r="O6" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J7" s="1" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="24" t="s">
-        <v>331</v>
+      <c r="O7" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J8" s="1" t="s">
-        <v>268</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="24" t="s">
-        <v>330</v>
+      <c r="O8" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J9" s="1" t="s">
-        <v>269</v>
+        <v>113</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="24" t="s">
-        <v>332</v>
+      <c r="O9" s="22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" s="1" t="s">
-        <v>270</v>
+        <v>114</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="24" t="s">
-        <v>333</v>
+      <c r="O10" s="22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="12" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="20" t="s">
-        <v>272</v>
+      <c r="J19" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J20" s="20" t="s">
-        <v>273</v>
+      <c r="J20" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J21" s="20" t="s">
-        <v>274</v>
+      <c r="J21" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>275</v>
+      <c r="A28" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="12" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J31" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="O31" s="20" t="s">
-        <v>313</v>
+      <c r="J31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J32" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="O32" s="20" t="s">
-        <v>314</v>
+      <c r="J32" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="O32" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J33" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="O33" s="20" t="s">
-        <v>315</v>
+      <c r="J33" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O33" s="18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J34" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>316</v>
+      <c r="J34" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O36" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J37" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O37" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="O35" s="20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J36" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="O36" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J37" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="O37" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J38" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="O38" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J39" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J40" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J41" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J42" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>293</v>
+      <c r="A52" s="24" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="12" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J54" s="20" t="s">
-        <v>294</v>
+      <c r="J54" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J55" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>319</v>
+      <c r="J55" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J56" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>320</v>
+      <c r="J56" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O56" s="18" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J57" s="20" t="s">
-        <v>297</v>
+      <c r="J57" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J58" s="20" t="s">
-        <v>298</v>
+      <c r="J58" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J59" s="20" t="s">
-        <v>299</v>
+      <c r="J59" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J60" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="O60" s="20" t="s">
-        <v>325</v>
+      <c r="J60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J61" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>323</v>
+      <c r="J61" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J62" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="O62" s="20" t="s">
-        <v>324</v>
+      <c r="J62" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O62" s="18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J63" s="20" t="s">
-        <v>301</v>
+      <c r="J63" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>302</v>
+      <c r="A77" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J78" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="12" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J79" s="20" t="s">
+      <c r="J79" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J80" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="O80" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J81" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="O81" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J82" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="O82" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="O83" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J84" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="O79" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J80" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O80" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J81" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="O81" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J82" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O82" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J83" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="O83" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J84" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="O84" s="13" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J85" s="20" t="s">
-        <v>304</v>
+      <c r="J85" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J86" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="O86" s="20" t="s">
-        <v>326</v>
+      <c r="J86" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J87" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="O87" s="20" t="s">
-        <v>317</v>
+      <c r="J87" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="O87" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J88" s="20" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O88" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J100" s="2" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J101" s="20" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J102" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="O102" s="20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="26"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="101" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J101" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J102" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O102" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="J113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K113" s="2"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J114" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J115" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>